--- a/outputs-GTDB-r202/g__UBA3839.xlsx
+++ b/outputs-GTDB-r202/g__UBA3839.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>s__UBA3839 sp002350855</t>
+          <t>s__UBA3839 sp002350855(reject)</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>s__UBA3839 sp002350855</t>
+          <t>s__UBA3839 sp002350855(reject)</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>s__UBA3839 sp002350855</t>
+          <t>s__UBA3839 sp002350855(reject)</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>s__UBA3839 sp002393575</t>
+          <t>s__UBA3839 sp002393575(reject)</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>s__UBA3839 sp002350855</t>
+          <t>s__UBA3839 sp002350855(reject)</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>s__UBA3839 sp002350855</t>
+          <t>s__UBA3839 sp002350855(reject)</t>
         </is>
       </c>
     </row>
